--- a/src/main/resources/api_master/ApiMaster.xlsx
+++ b/src/main/resources/api_master/ApiMaster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="api_config" sheetId="2" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>BASE_URL</t>
   </si>
   <si>
-    <t>/golf-cms/api/booking/abc</t>
+    <t>/golf-cms/api/e-invoice/abc</t>
   </si>
   <si>
     <t>GET</t>
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/src/main/resources/api_master/ApiMaster.xlsx
+++ b/src/main/resources/api_master/ApiMaster.xlsx
@@ -111,7 +111,7 @@
     <t>BASE_URL</t>
   </si>
   <si>
-    <t>/golf-cms/api/e-invoice/abc</t>
+    <t>/golf-cms/api/booking/abc</t>
   </si>
   <si>
     <t>GET</t>
@@ -132,7 +132,7 @@
     <t>testABC</t>
   </si>
   <si>
-    <t>abc_id</t>
+    <t>abc_case_id</t>
   </si>
   <si>
     <t>defTest</t>
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/src/main/resources/api_master/ApiMaster.xlsx
+++ b/src/main/resources/api_master/ApiMaster.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>module</t>
   </si>
@@ -163,6 +163,93 @@
   </si>
   <si>
     <t>def_id</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>CicoVoucherCheckTest</t>
+  </si>
+  <si>
+    <t>voucherCheckData</t>
+  </si>
+  <si>
+    <t>BASE_URL_MAINTENANCE</t>
+  </si>
+  <si>
+    <t>/golf-maintenance/api/vouchers/check</t>
+  </si>
+  <si>
+    <t>input_excel_file/booking/voucher.xlsx</t>
+  </si>
+  <si>
+    <t>CICO_Voucher_Check</t>
+  </si>
+  <si>
+    <t>input_json_file/voucher/voucher_check/</t>
+  </si>
+  <si>
+    <t>testVoucherCheck</t>
+  </si>
+  <si>
+    <t>cico_voucher_check_case_id</t>
+  </si>
+  <si>
+    <t>VoucherApplyPlayer1Test</t>
+  </si>
+  <si>
+    <t>voucherApplyData</t>
+  </si>
+  <si>
+    <t>/golf-cms/api/vouchers/golf-fee/apply</t>
+  </si>
+  <si>
+    <t>Voucher_Apply_Player1</t>
+  </si>
+  <si>
+    <t>input_json_file/voucher/vouchers_golf_fee_apply/</t>
+  </si>
+  <si>
+    <t>testVoucherApplyPlayer1</t>
+  </si>
+  <si>
+    <t>voucher_apply_player1_case_id</t>
+  </si>
+  <si>
+    <t>VoucherApplyPlayer2Test</t>
+  </si>
+  <si>
+    <t>Voucher_Apply_Player2</t>
+  </si>
+  <si>
+    <t>testVoucherApplyPlayer2</t>
+  </si>
+  <si>
+    <t>voucher_apply_player2_case_id</t>
+  </si>
+  <si>
+    <t>VoucherApplyPlayer3Test</t>
+  </si>
+  <si>
+    <t>Voucher_Apply_Player3</t>
+  </si>
+  <si>
+    <t>testVoucherApplyPlayer3</t>
+  </si>
+  <si>
+    <t>voucher_apply_player3_case_id</t>
+  </si>
+  <si>
+    <t>VoucherApplyPlayer4Test</t>
+  </si>
+  <si>
+    <t>Voucher_Apply_Player4</t>
+  </si>
+  <si>
+    <t>testVoucherApplyPlayer4</t>
+  </si>
+  <si>
+    <t>voucher_apply_player4_case_id</t>
   </si>
   <si>
     <t>endpoint</t>
@@ -275,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -804,16 +891,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +1052,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,14 +1064,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1516,173 +1606,366 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="36.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="20.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="18.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="21.7142857142857" customWidth="1"/>
-    <col min="8" max="11" width="20.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="18.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="20.1428571428571" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.8571428571429" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.2857142857143" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.1428571428571" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.4285714285714" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="6" customWidth="1"/>
+    <col min="8" max="11" width="20.1428571428571" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.1428571428571" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:12">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:12">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:12">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:12">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:12">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:12">
+      <c r="A9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1744,16 +2027,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>38</v>
@@ -1762,21 +2045,21 @@
         <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1791,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1802,16 +2085,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>38</v>
@@ -1820,27 +2103,27 @@
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>28</v>
@@ -1849,27 +2132,27 @@
         <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>28</v>
@@ -1878,27 +2161,27 @@
         <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>38</v>
@@ -1907,13 +2190,13 @@
         <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/api_master/ApiMaster.xlsx
+++ b/src/main/resources/api_master/ApiMaster.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="api_config" sheetId="2" r:id="rId1"/>
-    <sheet name="api_config_old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>module</t>
   </si>
@@ -168,193 +167,97 @@
     <t>voucher</t>
   </si>
   <si>
-    <t>CicoVoucherCheckTest</t>
-  </si>
-  <si>
-    <t>voucherCheckData</t>
-  </si>
-  <si>
-    <t>BASE_URL_MAINTENANCE</t>
-  </si>
-  <si>
-    <t>/golf-maintenance/api/vouchers/check</t>
+    <t>VoucherApplyBulkAddTest</t>
+  </si>
+  <si>
+    <t>voucherApplyBulkData</t>
+  </si>
+  <si>
+    <t>/golf-cms/api/vouchers/golf-fee/apply-bulk</t>
   </si>
   <si>
     <t>input_excel_file/booking/voucher.xlsx</t>
   </si>
   <si>
-    <t>CICO_Voucher_Check</t>
-  </si>
-  <si>
-    <t>input_json_file/voucher/voucher_check/</t>
-  </si>
-  <si>
-    <t>testVoucherCheck</t>
-  </si>
-  <si>
-    <t>cico_voucher_check_case_id</t>
-  </si>
-  <si>
-    <t>VoucherApplyPlayer1Test</t>
-  </si>
-  <si>
-    <t>voucherApplyData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/vouchers/golf-fee/apply</t>
-  </si>
-  <si>
-    <t>Voucher_Apply_Player1</t>
-  </si>
-  <si>
-    <t>input_json_file/voucher/vouchers_golf_fee_apply/</t>
-  </si>
-  <si>
-    <t>testVoucherApplyPlayer1</t>
-  </si>
-  <si>
-    <t>voucher_apply_player1_case_id</t>
-  </si>
-  <si>
-    <t>VoucherApplyPlayer2Test</t>
-  </si>
-  <si>
-    <t>Voucher_Apply_Player2</t>
-  </si>
-  <si>
-    <t>testVoucherApplyPlayer2</t>
-  </si>
-  <si>
-    <t>voucher_apply_player2_case_id</t>
-  </si>
-  <si>
-    <t>VoucherApplyPlayer3Test</t>
-  </si>
-  <si>
-    <t>Voucher_Apply_Player3</t>
-  </si>
-  <si>
-    <t>testVoucherApplyPlayer3</t>
-  </si>
-  <si>
-    <t>voucher_apply_player3_case_id</t>
-  </si>
-  <si>
-    <t>VoucherApplyPlayer4Test</t>
-  </si>
-  <si>
-    <t>Voucher_Apply_Player4</t>
-  </si>
-  <si>
-    <t>testVoucherApplyPlayer4</t>
-  </si>
-  <si>
-    <t>voucher_apply_player4_case_id</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>user/functional</t>
-  </si>
-  <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
-    <t>loginData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/user/login</t>
-  </si>
-  <si>
-    <t>user/Login.xlsx</t>
-  </si>
-  <si>
-    <t>login_request_template.json</t>
-  </si>
-  <si>
-    <t>testLogin</t>
-  </si>
-  <si>
-    <t>booking/functional</t>
-  </si>
-  <si>
-    <t>QuoteFeeTest</t>
-  </si>
-  <si>
-    <t>booking/Booking_Quote_Fee.xlsx</t>
-  </si>
-  <si>
-    <t>quote_fee_request_template.json</t>
-  </si>
-  <si>
-    <t>CreateBookingBatchTest</t>
-  </si>
-  <si>
-    <t>createBookingBatchData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/booking/batch</t>
-  </si>
-  <si>
-    <t>booking/Create_Booking_Batch.xlsx</t>
-  </si>
-  <si>
-    <t>create_booking_batch_template.json</t>
-  </si>
-  <si>
-    <t>testCreateBookingBatch</t>
-  </si>
-  <si>
-    <t>GetBookingListSelectTest</t>
-  </si>
-  <si>
-    <t>getBookingListSelectData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/booking/list/select</t>
-  </si>
-  <si>
-    <t>booking/Get_Booking_List_Select.xlsx</t>
-  </si>
-  <si>
-    <t>(để trống)</t>
-  </si>
-  <si>
-    <t>testGetBookingListSelect</t>
-  </si>
-  <si>
-    <t>GetBookingPriceTest</t>
-  </si>
-  <si>
-    <t>getBookingPriceData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/booking/booking-price</t>
-  </si>
-  <si>
-    <t>booking/Get_Booking_Price.xlsx</t>
-  </si>
-  <si>
-    <t>testGetBookingPrice</t>
-  </si>
-  <si>
-    <t>ReportBookingStatisticABC</t>
-  </si>
-  <si>
-    <t>ReportBookingStatisticData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/report/booking-statistic</t>
-  </si>
-  <si>
-    <t>booking/Report_Booking_Statistic.xlsx</t>
-  </si>
-  <si>
-    <t>report_booking_statistic_template.json</t>
-  </si>
-  <si>
-    <t>testReportBookingStatistic</t>
+    <t>Voucher_Apply_Bulk_Add</t>
+  </si>
+  <si>
+    <t>input_json_file/voucher/vouchers_golf_fee_apply_bulk/</t>
+  </si>
+  <si>
+    <t>testVoucherApplyBulkAdd</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_add_case_id</t>
+  </si>
+  <si>
+    <t>VoucherApplyBulkRemoveTest</t>
+  </si>
+  <si>
+    <t>Voucher_Apply_Bulk_Remove</t>
+  </si>
+  <si>
+    <t>testVoucherApplyBulkRemove</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_remove_case_id</t>
+  </si>
+  <si>
+    <t>VoucherRemovePlayer1Test</t>
+  </si>
+  <si>
+    <t>voucherRemoveData</t>
+  </si>
+  <si>
+    <t>/golf-cms/api/vouchers/golf-fee/remove</t>
+  </si>
+  <si>
+    <t>Voucher_Remove_Player1</t>
+  </si>
+  <si>
+    <t>input_json_file/voucher/voucher_golf_fee_remove/</t>
+  </si>
+  <si>
+    <t>testVoucherRemovePlayer1</t>
+  </si>
+  <si>
+    <t>voucher_remove_player1_case_id</t>
+  </si>
+  <si>
+    <t>VoucherRemovePlayer2Test</t>
+  </si>
+  <si>
+    <t>Voucher_Remove_Player2</t>
+  </si>
+  <si>
+    <t>testVoucherRemovePlayer2</t>
+  </si>
+  <si>
+    <t>voucher_remove_player2_case_id</t>
+  </si>
+  <si>
+    <t>VoucherRemovePlayer3Test</t>
+  </si>
+  <si>
+    <t>Voucher_Remove_Player3</t>
+  </si>
+  <si>
+    <t>testVoucherRemovePlayer3</t>
+  </si>
+  <si>
+    <t>voucher_remove_player3_case_id</t>
+  </si>
+  <si>
+    <t>VoucherRemovePlayer4Test</t>
+  </si>
+  <si>
+    <t>Voucher_Remove_Player4</t>
+  </si>
+  <si>
+    <t>testVoucherRemovePlayer4</t>
+  </si>
+  <si>
+    <t>voucher_remove_player4_case_id</t>
   </si>
 </sst>
 </file>
@@ -362,44 +265,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF1A1C1E"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF1A1C1E"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF1A1C1E"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <color rgb="FF1A1C1E"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -562,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,12 +448,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCFCFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -762,27 +633,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -891,186 +747,165 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1606,597 +1441,405 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1428571428571" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.8571428571429" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.2857142857143" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.1428571428571" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.4285714285714" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.7142857142857" style="6" customWidth="1"/>
-    <col min="8" max="11" width="20.1428571428571" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.1428571428571" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="10" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:12">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:12">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:12">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="L6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:12">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:12">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:12">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="24.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="26.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="35.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="16.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="36.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="37.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="30.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" ht="29" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" ht="35" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/api_master/ApiMaster.xlsx
+++ b/src/main/resources/api_master/ApiMaster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>module</t>
   </si>
@@ -101,163 +101,25 @@
     <t>quote_fee_case_id</t>
   </si>
   <si>
-    <t>ABCTest</t>
-  </si>
-  <si>
-    <t>aBCData</t>
+    <t>QuoteFeeVoucherTest</t>
   </si>
   <si>
     <t>BASE_URL</t>
   </si>
   <si>
-    <t>/golf-cms/api/booking/abc</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>QUERY_PARAM</t>
-  </si>
-  <si>
-    <t>input_excel_file/booking/ABC.xlsx</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>input_json_file/booking/abc/</t>
-  </si>
-  <si>
-    <t>testABC</t>
-  </si>
-  <si>
-    <t>abc_case_id</t>
-  </si>
-  <si>
-    <t>defTest</t>
-  </si>
-  <si>
-    <t>defData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/booking/def</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>JSON</t>
   </si>
   <si>
-    <t>input_excel_file/booking/def.xlsx</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>input_json_file/booking/def/</t>
-  </si>
-  <si>
-    <t>testdef</t>
-  </si>
-  <si>
-    <t>def_id</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>VoucherApplyBulkAddTest</t>
-  </si>
-  <si>
-    <t>voucherApplyBulkData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/vouchers/golf-fee/apply-bulk</t>
-  </si>
-  <si>
-    <t>input_excel_file/booking/voucher.xlsx</t>
-  </si>
-  <si>
-    <t>Voucher_Apply_Bulk_Add</t>
-  </si>
-  <si>
-    <t>input_json_file/voucher/vouchers_golf_fee_apply_bulk/</t>
-  </si>
-  <si>
-    <t>testVoucherApplyBulkAdd</t>
-  </si>
-  <si>
-    <t>voucher_apply_bulk_add_case_id</t>
-  </si>
-  <si>
-    <t>VoucherApplyBulkRemoveTest</t>
-  </si>
-  <si>
-    <t>Voucher_Apply_Bulk_Remove</t>
-  </si>
-  <si>
-    <t>testVoucherApplyBulkRemove</t>
-  </si>
-  <si>
-    <t>voucher_apply_bulk_remove_case_id</t>
-  </si>
-  <si>
-    <t>VoucherRemovePlayer1Test</t>
-  </si>
-  <si>
-    <t>voucherRemoveData</t>
-  </si>
-  <si>
-    <t>/golf-cms/api/vouchers/golf-fee/remove</t>
-  </si>
-  <si>
-    <t>Voucher_Remove_Player1</t>
-  </si>
-  <si>
-    <t>input_json_file/voucher/voucher_golf_fee_remove/</t>
-  </si>
-  <si>
-    <t>testVoucherRemovePlayer1</t>
-  </si>
-  <si>
-    <t>voucher_remove_player1_case_id</t>
-  </si>
-  <si>
-    <t>VoucherRemovePlayer2Test</t>
-  </si>
-  <si>
-    <t>Voucher_Remove_Player2</t>
-  </si>
-  <si>
-    <t>testVoucherRemovePlayer2</t>
-  </si>
-  <si>
-    <t>voucher_remove_player2_case_id</t>
-  </si>
-  <si>
-    <t>VoucherRemovePlayer3Test</t>
-  </si>
-  <si>
-    <t>Voucher_Remove_Player3</t>
-  </si>
-  <si>
-    <t>testVoucherRemovePlayer3</t>
-  </si>
-  <si>
-    <t>voucher_remove_player3_case_id</t>
-  </si>
-  <si>
-    <t>VoucherRemovePlayer4Test</t>
-  </si>
-  <si>
-    <t>Voucher_Remove_Player4</t>
-  </si>
-  <si>
-    <t>testVoucherRemovePlayer4</t>
-  </si>
-  <si>
-    <t>voucher_remove_player4_case_id</t>
+    <t>quote_fee_1_player_VC</t>
+  </si>
+  <si>
+    <t>testQuoteFeeVoucher</t>
+  </si>
+  <si>
+    <t>quote_fee_voucher_case_id</t>
   </si>
 </sst>
 </file>
@@ -1441,13 +1303,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.8571428571429" style="1" customWidth="1"/>
@@ -1538,308 +1400,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:12">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="45" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:12">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" ht="45" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="45" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" ht="45" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" ht="45" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/api_master/ApiMaster.xlsx
+++ b/src/main/resources/api_master/ApiMaster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>module</t>
   </si>
@@ -120,6 +120,57 @@
   </si>
   <si>
     <t>quote_fee_voucher_case_id</t>
+  </si>
+  <si>
+    <t>booking/checkin</t>
+  </si>
+  <si>
+    <t>CheckInBagPlayer1VoucherTest</t>
+  </si>
+  <si>
+    <t>checkInBagData</t>
+  </si>
+  <si>
+    <t>/golf-cms/api/booking/check-in</t>
+  </si>
+  <si>
+    <t>input_excel_file/booking/CheckIn.xlsx</t>
+  </si>
+  <si>
+    <t>Check_In_Bag_Player1_VC</t>
+  </si>
+  <si>
+    <t>input_json_file/booking/check_in/</t>
+  </si>
+  <si>
+    <t>testCheckInBag</t>
+  </si>
+  <si>
+    <t>check_in_bag_player1_voucher_case_id</t>
+  </si>
+  <si>
+    <t>booking/edit_booking</t>
+  </si>
+  <si>
+    <t>EditBooking1PlayerVoucherTest</t>
+  </si>
+  <si>
+    <t>EditBookingData</t>
+  </si>
+  <si>
+    <t>/golf-cms/api/booking/update</t>
+  </si>
+  <si>
+    <t>Edit_Booking_1_Player_VC</t>
+  </si>
+  <si>
+    <t>input_json_file/booking/edit_booking/</t>
+  </si>
+  <si>
+    <t>testEditBooking</t>
+  </si>
+  <si>
+    <t>edit_booking_1player_voucher_case_id</t>
   </si>
 </sst>
 </file>
@@ -1303,24 +1354,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="10" width="20.1428571428571" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
@@ -1438,6 +1490,82 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" ht="45" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
